--- a/Assets/text/新建 XLSX 工作表.xlsx
+++ b/Assets/text/新建 XLSX 工作表.xlsx
@@ -29,9 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>标志</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+  <si>
+    <t>立绘标志</t>
   </si>
   <si>
     <t>ID</t>
@@ -43,25 +43,49 @@
     <t>内容</t>
   </si>
   <si>
-    <t>跳转</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>李田所</t>
-  </si>
-  <si>
-    <t>哼哼哼啊啊啊啊啊啊</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>连子全</t>
-  </si>
-  <si>
-    <t>anything！</t>
+    <t>立绘演出位置</t>
+  </si>
+  <si>
+    <t>女主</t>
+  </si>
+  <si>
+    <t>凯特琳</t>
+  </si>
+  <si>
+    <t>呼...啊啊...好冷啊...</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>这么冷的天真的会有人来买火柴吗？</t>
+  </si>
+  <si>
+    <t>旁白</t>
+  </si>
+  <si>
+    <t>(卖火柴的女孩搓起了手，须臾的温暖被冷风吹散)</t>
+  </si>
+  <si>
+    <t>那个...您好...您要火柴吗...我...</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>走掉了...</t>
+  </si>
+  <si>
+    <t>果然...年夜不会有人来买火柴</t>
+  </si>
+  <si>
+    <t>呼呼...手都冻僵了</t>
+  </si>
+  <si>
+    <t>(寒风中瑟瑟发抖的女孩，划亮了一根火柴)</t>
+  </si>
+  <si>
+    <t>(朦胧的火光，映照着另一副景象)</t>
   </si>
 </sst>
 </file>
@@ -74,13 +98,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -547,141 +577,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,13 +1028,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="39.3055555555556" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1027,31 +1063,150 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
